--- a/Code/Results/Cases/Case_4_229/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_229/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.003282238479923</v>
+        <v>1.027703811178301</v>
       </c>
       <c r="D2">
-        <v>1.020162106462029</v>
+        <v>1.032237439393364</v>
       </c>
       <c r="E2">
-        <v>1.011435766774283</v>
+        <v>1.031335604262437</v>
       </c>
       <c r="F2">
-        <v>1.009798161657831</v>
+        <v>1.03865560699846</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045209276370538</v>
+        <v>1.036071163284896</v>
       </c>
       <c r="J2">
-        <v>1.025365219598448</v>
+        <v>1.032860207725328</v>
       </c>
       <c r="K2">
-        <v>1.031347519359358</v>
+        <v>1.035043249014786</v>
       </c>
       <c r="L2">
-        <v>1.022738049440195</v>
+        <v>1.03414401866725</v>
       </c>
       <c r="M2">
-        <v>1.021122659605195</v>
+        <v>1.04144302081561</v>
       </c>
       <c r="N2">
-        <v>1.012340915058366</v>
+        <v>1.014968057309961</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.007295355283635</v>
+        <v>1.028543015466689</v>
       </c>
       <c r="D3">
-        <v>1.023059546603027</v>
+        <v>1.032859274340459</v>
       </c>
       <c r="E3">
-        <v>1.014950054311806</v>
+        <v>1.032122164347624</v>
       </c>
       <c r="F3">
-        <v>1.014737461468645</v>
+        <v>1.039763551559392</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04658383325056</v>
+        <v>1.036299139637528</v>
       </c>
       <c r="J3">
-        <v>1.027589098146696</v>
+        <v>1.033340275995078</v>
       </c>
       <c r="K3">
-        <v>1.03340563887939</v>
+        <v>1.035474314750352</v>
       </c>
       <c r="L3">
-        <v>1.025395154268319</v>
+        <v>1.034739180058958</v>
       </c>
       <c r="M3">
-        <v>1.025185183432029</v>
+        <v>1.042360236894961</v>
       </c>
       <c r="N3">
-        <v>1.013087540124578</v>
+        <v>1.015128279350177</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.009841297459505</v>
+        <v>1.029086437180956</v>
       </c>
       <c r="D4">
-        <v>1.024899909698806</v>
+        <v>1.033261910430599</v>
       </c>
       <c r="E4">
-        <v>1.017184658005096</v>
+        <v>1.032631864755934</v>
       </c>
       <c r="F4">
-        <v>1.017871841687354</v>
+        <v>1.040481195187561</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047445508525781</v>
+        <v>1.036445505994942</v>
       </c>
       <c r="J4">
-        <v>1.02899656857002</v>
+        <v>1.033650664241427</v>
       </c>
       <c r="K4">
-        <v>1.034706823349968</v>
+        <v>1.035752819254406</v>
       </c>
       <c r="L4">
-        <v>1.027080010865808</v>
+        <v>1.035124377069898</v>
       </c>
       <c r="M4">
-        <v>1.027759250240943</v>
+        <v>1.042953879975131</v>
       </c>
       <c r="N4">
-        <v>1.013559969557105</v>
+        <v>1.015231834391668</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.010899843831802</v>
+        <v>1.02931498625713</v>
       </c>
       <c r="D5">
-        <v>1.025665581437135</v>
+        <v>1.033431241166733</v>
       </c>
       <c r="E5">
-        <v>1.018114957105243</v>
+        <v>1.032846319265842</v>
       </c>
       <c r="F5">
-        <v>1.019175309518701</v>
+        <v>1.040783066570264</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047801259313209</v>
+        <v>1.036506762573411</v>
       </c>
       <c r="J5">
-        <v>1.029580931779583</v>
+        <v>1.033781091110396</v>
       </c>
       <c r="K5">
-        <v>1.03524671797259</v>
+        <v>1.035869800085334</v>
       </c>
       <c r="L5">
-        <v>1.027780312896703</v>
+        <v>1.035286333720837</v>
       </c>
       <c r="M5">
-        <v>1.028828745455965</v>
+        <v>1.043203481079524</v>
       </c>
       <c r="N5">
-        <v>1.013756088915949</v>
+        <v>1.015275339993582</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.011076899557062</v>
+        <v>1.029353366162333</v>
       </c>
       <c r="D6">
-        <v>1.025793677647411</v>
+        <v>1.03345967616612</v>
       </c>
       <c r="E6">
-        <v>1.018270631550988</v>
+        <v>1.032882337425028</v>
       </c>
       <c r="F6">
-        <v>1.019393348510929</v>
+        <v>1.040833762289327</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04786061456231</v>
+        <v>1.036517031629061</v>
       </c>
       <c r="J6">
-        <v>1.029678624601333</v>
+        <v>1.033802986788405</v>
       </c>
       <c r="K6">
-        <v>1.035336956352193</v>
+        <v>1.035889435644294</v>
       </c>
       <c r="L6">
-        <v>1.027897433651073</v>
+        <v>1.03531352808326</v>
       </c>
       <c r="M6">
-        <v>1.029007589514813</v>
+        <v>1.043245392151543</v>
       </c>
       <c r="N6">
-        <v>1.013788874136671</v>
+        <v>1.01528264306793</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.009855487534327</v>
+        <v>1.029089490694823</v>
       </c>
       <c r="D7">
-        <v>1.024910171837135</v>
+        <v>1.033264172792353</v>
       </c>
       <c r="E7">
-        <v>1.017197124189348</v>
+        <v>1.03263472961614</v>
       </c>
       <c r="F7">
-        <v>1.017889313889367</v>
+        <v>1.040485228124809</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047450287425801</v>
+        <v>1.036446325592974</v>
       </c>
       <c r="J7">
-        <v>1.029004405418632</v>
+        <v>1.033652407249984</v>
       </c>
       <c r="K7">
-        <v>1.034714065189964</v>
+        <v>1.035754382761845</v>
       </c>
       <c r="L7">
-        <v>1.02708939950594</v>
+        <v>1.035126541066177</v>
       </c>
       <c r="M7">
-        <v>1.027773589993853</v>
+        <v>1.042957215026288</v>
       </c>
       <c r="N7">
-        <v>1.01356259980894</v>
+        <v>1.015232415829817</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.004649256236783</v>
+        <v>1.027987340519283</v>
       </c>
       <c r="D8">
-        <v>1.02114859387025</v>
+        <v>1.032447535197405</v>
       </c>
       <c r="E8">
-        <v>1.012631773571904</v>
+        <v>1.031601271077328</v>
       </c>
       <c r="F8">
-        <v>1.011480525575633</v>
+        <v>1.039029890645705</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045679652040634</v>
+        <v>1.036148446614264</v>
       </c>
       <c r="J8">
-        <v>1.026123447715082</v>
+        <v>1.033022499815649</v>
       </c>
       <c r="K8">
-        <v>1.032049515928505</v>
+        <v>1.035189016863477</v>
       </c>
       <c r="L8">
-        <v>1.023643315385085</v>
+        <v>1.034345137352378</v>
       </c>
       <c r="M8">
-        <v>1.022507199419425</v>
+        <v>1.041752968283604</v>
       </c>
       <c r="N8">
-        <v>1.012595495589621</v>
+        <v>1.015022229585292</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9950672283448747</v>
+        <v>1.026048334160984</v>
       </c>
       <c r="D9">
-        <v>1.014244994635298</v>
+        <v>1.031010627347087</v>
       </c>
       <c r="E9">
-        <v>1.004271364304195</v>
+        <v>1.029785946121627</v>
       </c>
       <c r="F9">
-        <v>0.999689359613152</v>
+        <v>1.036471013803632</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042340006055142</v>
+        <v>1.035614768918399</v>
       </c>
       <c r="J9">
-        <v>1.020795386108749</v>
+        <v>1.031910665741657</v>
       </c>
       <c r="K9">
-        <v>1.027111108464404</v>
+        <v>1.034189567467052</v>
       </c>
       <c r="L9">
-        <v>1.017295519654495</v>
+        <v>1.032968929089822</v>
       </c>
       <c r="M9">
-        <v>1.012787478752178</v>
+        <v>1.039632055838935</v>
       </c>
       <c r="N9">
-        <v>1.01080623487839</v>
+        <v>1.014650956905646</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9883770020494479</v>
+        <v>1.024757838129263</v>
       </c>
       <c r="D10">
-        <v>1.009441001709446</v>
+        <v>1.030054195683375</v>
       </c>
       <c r="E10">
-        <v>0.9984646397106837</v>
+        <v>1.028579693005915</v>
       </c>
       <c r="F10">
-        <v>0.9914554574004215</v>
+        <v>1.034768905083044</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03995556535968</v>
+        <v>1.035253119542728</v>
       </c>
       <c r="J10">
-        <v>1.01705948020797</v>
+        <v>1.031168252034112</v>
       </c>
       <c r="K10">
-        <v>1.023641862824337</v>
+        <v>1.033521173297377</v>
       </c>
       <c r="L10">
-        <v>1.012861671006541</v>
+        <v>1.032052014656906</v>
       </c>
       <c r="M10">
-        <v>1.005980719204937</v>
+        <v>1.038218907988639</v>
       </c>
       <c r="N10">
-        <v>1.009551353613062</v>
+        <v>1.014402860052835</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9854016573327443</v>
+        <v>1.024199570524284</v>
       </c>
       <c r="D11">
-        <v>1.0073090277103</v>
+        <v>1.029640425871557</v>
       </c>
       <c r="E11">
-        <v>0.9958899571570148</v>
+        <v>1.028058331052813</v>
       </c>
       <c r="F11">
-        <v>0.987792311670779</v>
+        <v>1.034032783375642</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038883088528413</v>
+        <v>1.035095138081956</v>
       </c>
       <c r="J11">
-        <v>1.015394612572081</v>
+        <v>1.030846508150749</v>
       </c>
       <c r="K11">
-        <v>1.02209441036503</v>
+        <v>1.033231266654074</v>
       </c>
       <c r="L11">
-        <v>1.010889801339046</v>
+        <v>1.031655127557225</v>
       </c>
       <c r="M11">
-        <v>1.002948178547794</v>
+        <v>1.037607195083734</v>
       </c>
       <c r="N11">
-        <v>1.008992097251978</v>
+        <v>1.014295297947206</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9842840818871311</v>
+        <v>1.023992285280202</v>
       </c>
       <c r="D12">
-        <v>1.006508969555393</v>
+        <v>1.029486790601156</v>
       </c>
       <c r="E12">
-        <v>0.9949240826270598</v>
+        <v>1.027864818787718</v>
       </c>
       <c r="F12">
-        <v>0.9864161064110073</v>
+        <v>1.03375949106036</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038478483043464</v>
+        <v>1.035036249252397</v>
       </c>
       <c r="J12">
-        <v>1.014768788728036</v>
+        <v>1.03072695794221</v>
       </c>
       <c r="K12">
-        <v>1.021512521462127</v>
+        <v>1.033123510130574</v>
       </c>
       <c r="L12">
-        <v>1.0101491796216</v>
+        <v>1.031507728649891</v>
       </c>
       <c r="M12">
-        <v>1.00180826318727</v>
+        <v>1.037380006662122</v>
       </c>
       <c r="N12">
-        <v>1.008781871311795</v>
+        <v>1.014255324739321</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.984524377087743</v>
+        <v>1.024036745019786</v>
       </c>
       <c r="D13">
-        <v>1.006680959562252</v>
+        <v>1.029519743273594</v>
       </c>
       <c r="E13">
-        <v>0.9951317046081768</v>
+        <v>1.027906321249748</v>
       </c>
       <c r="F13">
-        <v>0.9867120251714079</v>
+        <v>1.033818107025176</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038565558532268</v>
+        <v>1.0350488904858</v>
       </c>
       <c r="J13">
-        <v>1.014903371236349</v>
+        <v>1.030752603672047</v>
       </c>
       <c r="K13">
-        <v>1.021637664733145</v>
+        <v>1.033146627526404</v>
       </c>
       <c r="L13">
-        <v>1.010308421960395</v>
+        <v>1.031539345173009</v>
       </c>
       <c r="M13">
-        <v>1.002053401336706</v>
+        <v>1.0374287380295</v>
       </c>
       <c r="N13">
-        <v>1.008827080106298</v>
+        <v>1.014263900020717</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9853095348620561</v>
+        <v>1.024182434618187</v>
       </c>
       <c r="D14">
-        <v>1.00724306305789</v>
+        <v>1.029627725155639</v>
       </c>
       <c r="E14">
-        <v>0.9958103146849767</v>
+        <v>1.028042332306463</v>
       </c>
       <c r="F14">
-        <v>0.9876788764851908</v>
+        <v>1.034010190169302</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038849772391492</v>
+        <v>1.035090274542098</v>
       </c>
       <c r="J14">
-        <v>1.015343035069489</v>
+        <v>1.030836626907953</v>
       </c>
       <c r="K14">
-        <v>1.022046457801689</v>
+        <v>1.03322236093532</v>
       </c>
       <c r="L14">
-        <v>1.010828750451993</v>
+        <v>1.031642943049131</v>
       </c>
       <c r="M14">
-        <v>1.002854232294182</v>
+        <v>1.037588415023524</v>
       </c>
       <c r="N14">
-        <v>1.008974771413769</v>
+        <v>1.014291994152285</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9857916342382703</v>
+        <v>1.024272209452166</v>
       </c>
       <c r="D15">
-        <v>1.007588302598912</v>
+        <v>1.029694263988269</v>
       </c>
       <c r="E15">
-        <v>0.9962271526737712</v>
+        <v>1.028126152437044</v>
       </c>
       <c r="F15">
-        <v>0.9882724983878676</v>
+        <v>1.034128556977351</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039024051933749</v>
+        <v>1.035115745149289</v>
       </c>
       <c r="J15">
-        <v>1.015612933371615</v>
+        <v>1.030888391097271</v>
       </c>
       <c r="K15">
-        <v>1.022297379133481</v>
+        <v>1.033269013237962</v>
       </c>
       <c r="L15">
-        <v>1.011148246352571</v>
+        <v>1.031706776153649</v>
       </c>
       <c r="M15">
-        <v>1.003345840749559</v>
+        <v>1.037686801146559</v>
       </c>
       <c r="N15">
-        <v>1.009065435212341</v>
+        <v>1.014309301254035</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9885727617131005</v>
+        <v>1.024794899691581</v>
       </c>
       <c r="D16">
-        <v>1.009581371636271</v>
+        <v>1.030081664173001</v>
       </c>
       <c r="E16">
-        <v>0.9986342033052202</v>
+        <v>1.028614314301934</v>
       </c>
       <c r="F16">
-        <v>0.9916964359551045</v>
+        <v>1.034817778112042</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040025880067466</v>
+        <v>1.035263575123646</v>
       </c>
       <c r="J16">
-        <v>1.017168950187088</v>
+        <v>1.031189599426407</v>
       </c>
       <c r="K16">
-        <v>1.023743583834189</v>
+        <v>1.033540403256357</v>
       </c>
       <c r="L16">
-        <v>1.012991411097734</v>
+        <v>1.03207835785669</v>
       </c>
       <c r="M16">
-        <v>1.006180125971642</v>
+        <v>1.038259509395616</v>
       </c>
       <c r="N16">
-        <v>1.009588125995625</v>
+        <v>1.014409995791786</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9902958684371104</v>
+        <v>1.025122911074216</v>
       </c>
       <c r="D17">
-        <v>1.010817449727514</v>
+        <v>1.030324770543041</v>
       </c>
       <c r="E17">
-        <v>1.000127615278888</v>
+        <v>1.028920781716111</v>
       </c>
       <c r="F17">
-        <v>0.993817409936453</v>
+        <v>1.035250350293605</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040643433733356</v>
+        <v>1.035355934597059</v>
       </c>
       <c r="J17">
-        <v>1.018132138467601</v>
+        <v>1.031378466798608</v>
       </c>
       <c r="K17">
-        <v>1.024638431549915</v>
+        <v>1.033710509191193</v>
       </c>
       <c r="L17">
-        <v>1.014133407307033</v>
+        <v>1.032311480322161</v>
       </c>
       <c r="M17">
-        <v>1.007934717766088</v>
+        <v>1.038618805238114</v>
       </c>
       <c r="N17">
-        <v>1.009911670212078</v>
+        <v>1.014473123050842</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9912934035628856</v>
+        <v>1.025314285203863</v>
       </c>
       <c r="D18">
-        <v>1.01153345969235</v>
+        <v>1.030466606113558</v>
       </c>
       <c r="E18">
-        <v>1.000992908489844</v>
+        <v>1.029099630881797</v>
       </c>
       <c r="F18">
-        <v>0.9950451616133228</v>
+        <v>1.035502749385477</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040999799453616</v>
+        <v>1.035409672653824</v>
       </c>
       <c r="J18">
-        <v>1.018689419410965</v>
+        <v>1.031488603456088</v>
       </c>
       <c r="K18">
-        <v>1.025156036649999</v>
+        <v>1.033809681998358</v>
       </c>
       <c r="L18">
-        <v>1.014794525021788</v>
+        <v>1.03244747042197</v>
       </c>
       <c r="M18">
-        <v>1.008949973658668</v>
+        <v>1.038828394666816</v>
       </c>
       <c r="N18">
-        <v>1.010098863032969</v>
+        <v>1.014509931108651</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9916322791343599</v>
+        <v>1.025379547388748</v>
       </c>
       <c r="D19">
-        <v>1.011776767665701</v>
+        <v>1.03051497439503</v>
       </c>
       <c r="E19">
-        <v>1.001286982690219</v>
+        <v>1.029160629368672</v>
       </c>
       <c r="F19">
-        <v>0.9954622277508335</v>
+        <v>1.035588825705774</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041120665885196</v>
+        <v>1.035427973253419</v>
       </c>
       <c r="J19">
-        <v>1.01887867894823</v>
+        <v>1.031526152689189</v>
       </c>
       <c r="K19">
-        <v>1.025331798464678</v>
+        <v>1.033843489343368</v>
       </c>
       <c r="L19">
-        <v>1.015019113684303</v>
+        <v>1.032493841821718</v>
       </c>
       <c r="M19">
-        <v>1.009294784710735</v>
+        <v>1.038899862324042</v>
       </c>
       <c r="N19">
-        <v>1.010162435399782</v>
+        <v>1.01452247948846</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9901117779467817</v>
+        <v>1.025087713310385</v>
       </c>
       <c r="D20">
-        <v>1.010685347230913</v>
+        <v>1.030298683823174</v>
       </c>
       <c r="E20">
-        <v>0.9999679882831395</v>
+        <v>1.02888789114556</v>
       </c>
       <c r="F20">
-        <v>0.9935908253467226</v>
+        <v>1.035203930384265</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040577575174459</v>
+        <v>1.035346039120651</v>
       </c>
       <c r="J20">
-        <v>1.018029268386353</v>
+        <v>1.031358205849708</v>
       </c>
       <c r="K20">
-        <v>1.024542874318346</v>
+        <v>1.033692263299756</v>
       </c>
       <c r="L20">
-        <v>1.014011400601767</v>
+        <v>1.032286467061377</v>
       </c>
       <c r="M20">
-        <v>1.007747316403435</v>
+        <v>1.038580254303774</v>
       </c>
       <c r="N20">
-        <v>1.009877115471474</v>
+        <v>1.01446635143588</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9850786729231887</v>
+        <v>1.024139530438904</v>
       </c>
       <c r="D21">
-        <v>1.007077765554531</v>
+        <v>1.02959592559036</v>
       </c>
       <c r="E21">
-        <v>0.9956107476385015</v>
+        <v>1.028002276431552</v>
       </c>
       <c r="F21">
-        <v>0.9873945992950285</v>
+        <v>1.033953622711205</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038766252673523</v>
+        <v>1.035078093691781</v>
       </c>
       <c r="J21">
-        <v>1.015213772536465</v>
+        <v>1.030811885261513</v>
       </c>
       <c r="K21">
-        <v>1.021926276816868</v>
+        <v>1.033200061321783</v>
       </c>
       <c r="L21">
-        <v>1.010675755636953</v>
+        <v>1.031612435422601</v>
       </c>
       <c r="M21">
-        <v>1.002618785921377</v>
+        <v>1.037541393324168</v>
       </c>
       <c r="N21">
-        <v>1.008931349723415</v>
+        <v>1.014283721675914</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9818420819361631</v>
+        <v>1.023543834860818</v>
       </c>
       <c r="D22">
-        <v>1.004762195926294</v>
+        <v>1.029154405611196</v>
       </c>
       <c r="E22">
-        <v>0.9928158324741989</v>
+        <v>1.027446293697608</v>
       </c>
       <c r="F22">
-        <v>0.9834083505906767</v>
+        <v>1.033168292100123</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037591174841029</v>
+        <v>1.034908425635538</v>
       </c>
       <c r="J22">
-        <v>1.013400462745693</v>
+        <v>1.03046815967723</v>
       </c>
       <c r="K22">
-        <v>1.020239899437688</v>
+        <v>1.032890176642011</v>
       </c>
       <c r="L22">
-        <v>1.008530965318699</v>
+        <v>1.031188776501673</v>
       </c>
       <c r="M22">
-        <v>0.9993158157929464</v>
+        <v>1.036888388173025</v>
       </c>
       <c r="N22">
-        <v>1.008322226042477</v>
+        <v>1.014168780413467</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9835649089787698</v>
+        <v>1.023859579907832</v>
       </c>
       <c r="D23">
-        <v>1.005994338142272</v>
+        <v>1.029388431747957</v>
       </c>
       <c r="E23">
-        <v>0.9943028769323861</v>
+        <v>1.027740950691372</v>
       </c>
       <c r="F23">
-        <v>0.9855304103880632</v>
+        <v>1.03358453592083</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038217620886644</v>
+        <v>1.034998483445524</v>
       </c>
       <c r="J23">
-        <v>1.014365932622007</v>
+        <v>1.030650396804585</v>
       </c>
       <c r="K23">
-        <v>1.021137891951613</v>
+        <v>1.033054491651826</v>
       </c>
       <c r="L23">
-        <v>1.009672595844653</v>
+        <v>1.031413353256282</v>
       </c>
       <c r="M23">
-        <v>1.001074466406673</v>
+        <v>1.037234542459233</v>
       </c>
       <c r="N23">
-        <v>1.008646544417832</v>
+        <v>1.014229723702327</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9901949837215586</v>
+        <v>1.025103617508438</v>
       </c>
       <c r="D24">
-        <v>1.010745054006255</v>
+        <v>1.030310471178739</v>
       </c>
       <c r="E24">
-        <v>1.000040134707358</v>
+        <v>1.028902752694825</v>
       </c>
       <c r="F24">
-        <v>0.9936932380836336</v>
+        <v>1.035224905274132</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040607345681243</v>
+        <v>1.035350510873537</v>
       </c>
       <c r="J24">
-        <v>1.018075764924934</v>
+        <v>1.031367360982324</v>
       </c>
       <c r="K24">
-        <v>1.024586065922084</v>
+        <v>1.033700507978363</v>
       </c>
       <c r="L24">
-        <v>1.014066545571919</v>
+        <v>1.032297769435005</v>
       </c>
       <c r="M24">
-        <v>1.007832020202627</v>
+        <v>1.038597673755203</v>
       </c>
       <c r="N24">
-        <v>1.009892733976494</v>
+        <v>1.01446941127742</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9975955276600702</v>
+        <v>1.02654923595189</v>
       </c>
       <c r="D25">
-        <v>1.016063998838777</v>
+        <v>1.031381843222511</v>
       </c>
       <c r="E25">
-        <v>1.006472212808357</v>
+        <v>1.030254559132037</v>
       </c>
       <c r="F25">
-        <v>1.002800466689779</v>
+        <v>1.037131875979425</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043230433101593</v>
+        <v>1.035753773709582</v>
       </c>
       <c r="J25">
-        <v>1.022204083734596</v>
+        <v>1.032198315618573</v>
       </c>
       <c r="K25">
-        <v>1.028417956937904</v>
+        <v>1.034448322561398</v>
       </c>
       <c r="L25">
-        <v>1.018970880036162</v>
+        <v>1.033324618755594</v>
       </c>
       <c r="M25">
-        <v>1.015355464019596</v>
+        <v>1.04018022542988</v>
       </c>
       <c r="N25">
-        <v>1.011279364719274</v>
+        <v>1.014747043922057</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_229/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_229/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.027703811178301</v>
+        <v>1.003282238479923</v>
       </c>
       <c r="D2">
-        <v>1.032237439393364</v>
+        <v>1.020162106462029</v>
       </c>
       <c r="E2">
-        <v>1.031335604262437</v>
+        <v>1.011435766774283</v>
       </c>
       <c r="F2">
-        <v>1.03865560699846</v>
+        <v>1.00979816165783</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036071163284896</v>
+        <v>1.045209276370537</v>
       </c>
       <c r="J2">
-        <v>1.032860207725328</v>
+        <v>1.025365219598448</v>
       </c>
       <c r="K2">
-        <v>1.035043249014786</v>
+        <v>1.031347519359358</v>
       </c>
       <c r="L2">
-        <v>1.03414401866725</v>
+        <v>1.022738049440195</v>
       </c>
       <c r="M2">
-        <v>1.04144302081561</v>
+        <v>1.021122659605195</v>
       </c>
       <c r="N2">
-        <v>1.014968057309961</v>
+        <v>1.012340915058366</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.028543015466689</v>
+        <v>1.007295355283635</v>
       </c>
       <c r="D3">
-        <v>1.032859274340459</v>
+        <v>1.023059546603027</v>
       </c>
       <c r="E3">
-        <v>1.032122164347624</v>
+        <v>1.014950054311805</v>
       </c>
       <c r="F3">
-        <v>1.039763551559392</v>
+        <v>1.014737461468645</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036299139637528</v>
+        <v>1.04658383325056</v>
       </c>
       <c r="J3">
-        <v>1.033340275995078</v>
+        <v>1.027589098146696</v>
       </c>
       <c r="K3">
-        <v>1.035474314750352</v>
+        <v>1.033405638879389</v>
       </c>
       <c r="L3">
-        <v>1.034739180058958</v>
+        <v>1.025395154268318</v>
       </c>
       <c r="M3">
-        <v>1.042360236894961</v>
+        <v>1.025185183432029</v>
       </c>
       <c r="N3">
-        <v>1.015128279350177</v>
+        <v>1.013087540124578</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.029086437180956</v>
+        <v>1.009841297459505</v>
       </c>
       <c r="D4">
-        <v>1.033261910430599</v>
+        <v>1.024899909698806</v>
       </c>
       <c r="E4">
-        <v>1.032631864755934</v>
+        <v>1.017184658005097</v>
       </c>
       <c r="F4">
-        <v>1.040481195187561</v>
+        <v>1.017871841687354</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036445505994942</v>
+        <v>1.047445508525781</v>
       </c>
       <c r="J4">
-        <v>1.033650664241427</v>
+        <v>1.02899656857002</v>
       </c>
       <c r="K4">
-        <v>1.035752819254406</v>
+        <v>1.034706823349968</v>
       </c>
       <c r="L4">
-        <v>1.035124377069898</v>
+        <v>1.027080010865809</v>
       </c>
       <c r="M4">
-        <v>1.042953879975131</v>
+        <v>1.027759250240943</v>
       </c>
       <c r="N4">
-        <v>1.015231834391668</v>
+        <v>1.013559969557105</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.02931498625713</v>
+        <v>1.010899843831801</v>
       </c>
       <c r="D5">
-        <v>1.033431241166733</v>
+        <v>1.025665581437134</v>
       </c>
       <c r="E5">
-        <v>1.032846319265842</v>
+        <v>1.018114957105242</v>
       </c>
       <c r="F5">
-        <v>1.040783066570264</v>
+        <v>1.019175309518701</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.036506762573411</v>
+        <v>1.047801259313209</v>
       </c>
       <c r="J5">
-        <v>1.033781091110396</v>
+        <v>1.029580931779583</v>
       </c>
       <c r="K5">
-        <v>1.035869800085334</v>
+        <v>1.03524671797259</v>
       </c>
       <c r="L5">
-        <v>1.035286333720837</v>
+        <v>1.027780312896702</v>
       </c>
       <c r="M5">
-        <v>1.043203481079524</v>
+        <v>1.028828745455964</v>
       </c>
       <c r="N5">
-        <v>1.015275339993582</v>
+        <v>1.013756088915949</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.029353366162333</v>
+        <v>1.011076899557062</v>
       </c>
       <c r="D6">
-        <v>1.03345967616612</v>
+        <v>1.02579367764741</v>
       </c>
       <c r="E6">
-        <v>1.032882337425028</v>
+        <v>1.018270631550987</v>
       </c>
       <c r="F6">
-        <v>1.040833762289327</v>
+        <v>1.019393348510929</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.036517031629061</v>
+        <v>1.047860614562309</v>
       </c>
       <c r="J6">
-        <v>1.033802986788405</v>
+        <v>1.029678624601333</v>
       </c>
       <c r="K6">
-        <v>1.035889435644294</v>
+        <v>1.035336956352193</v>
       </c>
       <c r="L6">
-        <v>1.03531352808326</v>
+        <v>1.027897433651073</v>
       </c>
       <c r="M6">
-        <v>1.043245392151543</v>
+        <v>1.029007589514813</v>
       </c>
       <c r="N6">
-        <v>1.01528264306793</v>
+        <v>1.01378887413667</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.029089490694823</v>
+        <v>1.009855487534328</v>
       </c>
       <c r="D7">
-        <v>1.033264172792353</v>
+        <v>1.024910171837135</v>
       </c>
       <c r="E7">
-        <v>1.03263472961614</v>
+        <v>1.017197124189348</v>
       </c>
       <c r="F7">
-        <v>1.040485228124809</v>
+        <v>1.017889313889367</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.036446325592974</v>
+        <v>1.047450287425802</v>
       </c>
       <c r="J7">
-        <v>1.033652407249984</v>
+        <v>1.029004405418631</v>
       </c>
       <c r="K7">
-        <v>1.035754382761845</v>
+        <v>1.034714065189964</v>
       </c>
       <c r="L7">
-        <v>1.035126541066177</v>
+        <v>1.02708939950594</v>
       </c>
       <c r="M7">
-        <v>1.042957215026288</v>
+        <v>1.027773589993853</v>
       </c>
       <c r="N7">
-        <v>1.015232415829817</v>
+        <v>1.01356259980894</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.027987340519283</v>
+        <v>1.004649256236782</v>
       </c>
       <c r="D8">
-        <v>1.032447535197405</v>
+        <v>1.021148593870249</v>
       </c>
       <c r="E8">
-        <v>1.031601271077328</v>
+        <v>1.012631773571903</v>
       </c>
       <c r="F8">
-        <v>1.039029890645705</v>
+        <v>1.011480525575633</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036148446614264</v>
+        <v>1.045679652040633</v>
       </c>
       <c r="J8">
-        <v>1.033022499815649</v>
+        <v>1.026123447715081</v>
       </c>
       <c r="K8">
-        <v>1.035189016863477</v>
+        <v>1.032049515928504</v>
       </c>
       <c r="L8">
-        <v>1.034345137352378</v>
+        <v>1.023643315385084</v>
       </c>
       <c r="M8">
-        <v>1.041752968283604</v>
+        <v>1.022507199419424</v>
       </c>
       <c r="N8">
-        <v>1.015022229585292</v>
+        <v>1.01259549558962</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.026048334160984</v>
+        <v>0.995067228344874</v>
       </c>
       <c r="D9">
-        <v>1.031010627347087</v>
+        <v>1.014244994635297</v>
       </c>
       <c r="E9">
-        <v>1.029785946121627</v>
+        <v>1.004271364304194</v>
       </c>
       <c r="F9">
-        <v>1.036471013803632</v>
+        <v>0.9996893596131513</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035614768918399</v>
+        <v>1.042340006055142</v>
       </c>
       <c r="J9">
-        <v>1.031910665741657</v>
+        <v>1.020795386108748</v>
       </c>
       <c r="K9">
-        <v>1.034189567467052</v>
+        <v>1.027111108464403</v>
       </c>
       <c r="L9">
-        <v>1.032968929089822</v>
+        <v>1.017295519654494</v>
       </c>
       <c r="M9">
-        <v>1.039632055838935</v>
+        <v>1.012787478752177</v>
       </c>
       <c r="N9">
-        <v>1.014650956905646</v>
+        <v>1.01080623487839</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.024757838129263</v>
+        <v>0.9883770020494471</v>
       </c>
       <c r="D10">
-        <v>1.030054195683375</v>
+        <v>1.009441001709445</v>
       </c>
       <c r="E10">
-        <v>1.028579693005915</v>
+        <v>0.9984646397106826</v>
       </c>
       <c r="F10">
-        <v>1.034768905083044</v>
+        <v>0.9914554574004204</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035253119542728</v>
+        <v>1.039955565359679</v>
       </c>
       <c r="J10">
-        <v>1.031168252034112</v>
+        <v>1.017059480207969</v>
       </c>
       <c r="K10">
-        <v>1.033521173297377</v>
+        <v>1.023641862824336</v>
       </c>
       <c r="L10">
-        <v>1.032052014656906</v>
+        <v>1.01286167100654</v>
       </c>
       <c r="M10">
-        <v>1.038218907988639</v>
+        <v>1.005980719204935</v>
       </c>
       <c r="N10">
-        <v>1.014402860052835</v>
+        <v>1.009551353613062</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.024199570524284</v>
+        <v>0.9854016573327435</v>
       </c>
       <c r="D11">
-        <v>1.029640425871557</v>
+        <v>1.0073090277103</v>
       </c>
       <c r="E11">
-        <v>1.028058331052813</v>
+        <v>0.9958899571570137</v>
       </c>
       <c r="F11">
-        <v>1.034032783375642</v>
+        <v>0.9877923116707784</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035095138081956</v>
+        <v>1.038883088528413</v>
       </c>
       <c r="J11">
-        <v>1.030846508150749</v>
+        <v>1.01539461257208</v>
       </c>
       <c r="K11">
-        <v>1.033231266654074</v>
+        <v>1.022094410365029</v>
       </c>
       <c r="L11">
-        <v>1.031655127557225</v>
+        <v>1.010889801339045</v>
       </c>
       <c r="M11">
-        <v>1.037607195083734</v>
+        <v>1.002948178547793</v>
       </c>
       <c r="N11">
-        <v>1.014295297947206</v>
+        <v>1.008992097251978</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.023992285280202</v>
+        <v>0.9842840818871311</v>
       </c>
       <c r="D12">
-        <v>1.029486790601156</v>
+        <v>1.006508969555393</v>
       </c>
       <c r="E12">
-        <v>1.027864818787718</v>
+        <v>0.9949240826270598</v>
       </c>
       <c r="F12">
-        <v>1.03375949106036</v>
+        <v>0.9864161064110075</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035036249252397</v>
+        <v>1.038478483043464</v>
       </c>
       <c r="J12">
-        <v>1.03072695794221</v>
+        <v>1.014768788728036</v>
       </c>
       <c r="K12">
-        <v>1.033123510130574</v>
+        <v>1.021512521462127</v>
       </c>
       <c r="L12">
-        <v>1.031507728649891</v>
+        <v>1.0101491796216</v>
       </c>
       <c r="M12">
-        <v>1.037380006662122</v>
+        <v>1.00180826318727</v>
       </c>
       <c r="N12">
-        <v>1.014255324739321</v>
+        <v>1.008781871311795</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.024036745019786</v>
+        <v>0.9845243770877438</v>
       </c>
       <c r="D13">
-        <v>1.029519743273594</v>
+        <v>1.006680959562253</v>
       </c>
       <c r="E13">
-        <v>1.027906321249748</v>
+        <v>0.9951317046081772</v>
       </c>
       <c r="F13">
-        <v>1.033818107025176</v>
+        <v>0.986712025171409</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.0350488904858</v>
+        <v>1.038565558532268</v>
       </c>
       <c r="J13">
-        <v>1.030752603672047</v>
+        <v>1.01490337123635</v>
       </c>
       <c r="K13">
-        <v>1.033146627526404</v>
+        <v>1.021637664733145</v>
       </c>
       <c r="L13">
-        <v>1.031539345173009</v>
+        <v>1.010308421960395</v>
       </c>
       <c r="M13">
-        <v>1.0374287380295</v>
+        <v>1.002053401336707</v>
       </c>
       <c r="N13">
-        <v>1.014263900020717</v>
+        <v>1.008827080106298</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.024182434618187</v>
+        <v>0.9853095348620566</v>
       </c>
       <c r="D14">
-        <v>1.029627725155639</v>
+        <v>1.00724306305789</v>
       </c>
       <c r="E14">
-        <v>1.028042332306463</v>
+        <v>0.9958103146849774</v>
       </c>
       <c r="F14">
-        <v>1.034010190169302</v>
+        <v>0.9876788764851914</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035090274542098</v>
+        <v>1.038849772391492</v>
       </c>
       <c r="J14">
-        <v>1.030836626907953</v>
+        <v>1.01534303506949</v>
       </c>
       <c r="K14">
-        <v>1.03322236093532</v>
+        <v>1.02204645780169</v>
       </c>
       <c r="L14">
-        <v>1.031642943049131</v>
+        <v>1.010828750451994</v>
       </c>
       <c r="M14">
-        <v>1.037588415023524</v>
+        <v>1.002854232294182</v>
       </c>
       <c r="N14">
-        <v>1.014291994152285</v>
+        <v>1.008974771413769</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.024272209452166</v>
+        <v>0.9857916342382705</v>
       </c>
       <c r="D15">
-        <v>1.029694263988269</v>
+        <v>1.007588302598913</v>
       </c>
       <c r="E15">
-        <v>1.028126152437044</v>
+        <v>0.996227152673771</v>
       </c>
       <c r="F15">
-        <v>1.034128556977351</v>
+        <v>0.9882724983878678</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035115745149289</v>
+        <v>1.03902405193375</v>
       </c>
       <c r="J15">
-        <v>1.030888391097271</v>
+        <v>1.015612933371615</v>
       </c>
       <c r="K15">
-        <v>1.033269013237962</v>
+        <v>1.022297379133481</v>
       </c>
       <c r="L15">
-        <v>1.031706776153649</v>
+        <v>1.011148246352571</v>
       </c>
       <c r="M15">
-        <v>1.037686801146559</v>
+        <v>1.003345840749559</v>
       </c>
       <c r="N15">
-        <v>1.014309301254035</v>
+        <v>1.009065435212341</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.024794899691581</v>
+        <v>0.9885727617130995</v>
       </c>
       <c r="D16">
-        <v>1.030081664173001</v>
+        <v>1.009581371636271</v>
       </c>
       <c r="E16">
-        <v>1.028614314301934</v>
+        <v>0.9986342033052189</v>
       </c>
       <c r="F16">
-        <v>1.034817778112042</v>
+        <v>0.9916964359551034</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035263575123646</v>
+        <v>1.040025880067464</v>
       </c>
       <c r="J16">
-        <v>1.031189599426407</v>
+        <v>1.017168950187088</v>
       </c>
       <c r="K16">
-        <v>1.033540403256357</v>
+        <v>1.023743583834188</v>
       </c>
       <c r="L16">
-        <v>1.03207835785669</v>
+        <v>1.012991411097733</v>
       </c>
       <c r="M16">
-        <v>1.038259509395616</v>
+        <v>1.006180125971641</v>
       </c>
       <c r="N16">
-        <v>1.014409995791786</v>
+        <v>1.009588125995624</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.025122911074216</v>
+        <v>0.9902958684371105</v>
       </c>
       <c r="D17">
-        <v>1.030324770543041</v>
+        <v>1.010817449727514</v>
       </c>
       <c r="E17">
-        <v>1.028920781716111</v>
+        <v>1.000127615278888</v>
       </c>
       <c r="F17">
-        <v>1.035250350293605</v>
+        <v>0.9938174099364533</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035355934597059</v>
+        <v>1.040643433733356</v>
       </c>
       <c r="J17">
-        <v>1.031378466798608</v>
+        <v>1.018132138467601</v>
       </c>
       <c r="K17">
-        <v>1.033710509191193</v>
+        <v>1.024638431549915</v>
       </c>
       <c r="L17">
-        <v>1.032311480322161</v>
+        <v>1.014133407307033</v>
       </c>
       <c r="M17">
-        <v>1.038618805238114</v>
+        <v>1.007934717766088</v>
       </c>
       <c r="N17">
-        <v>1.014473123050842</v>
+        <v>1.009911670212078</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.025314285203863</v>
+        <v>0.9912934035628852</v>
       </c>
       <c r="D18">
-        <v>1.030466606113558</v>
+        <v>1.011533459692349</v>
       </c>
       <c r="E18">
-        <v>1.029099630881797</v>
+        <v>1.000992908489843</v>
       </c>
       <c r="F18">
-        <v>1.035502749385477</v>
+        <v>0.9950451616133225</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035409672653824</v>
+        <v>1.040999799453615</v>
       </c>
       <c r="J18">
-        <v>1.031488603456088</v>
+        <v>1.018689419410964</v>
       </c>
       <c r="K18">
-        <v>1.033809681998358</v>
+        <v>1.025156036649999</v>
       </c>
       <c r="L18">
-        <v>1.03244747042197</v>
+        <v>1.014794525021787</v>
       </c>
       <c r="M18">
-        <v>1.038828394666816</v>
+        <v>1.008949973658668</v>
       </c>
       <c r="N18">
-        <v>1.014509931108651</v>
+        <v>1.010098863032969</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.025379547388748</v>
+        <v>0.9916322791343597</v>
       </c>
       <c r="D19">
-        <v>1.03051497439503</v>
+        <v>1.011776767665701</v>
       </c>
       <c r="E19">
-        <v>1.029160629368672</v>
+        <v>1.001286982690219</v>
       </c>
       <c r="F19">
-        <v>1.035588825705774</v>
+        <v>0.9954622277508334</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035427973253419</v>
+        <v>1.041120665885195</v>
       </c>
       <c r="J19">
-        <v>1.031526152689189</v>
+        <v>1.01887867894823</v>
       </c>
       <c r="K19">
-        <v>1.033843489343368</v>
+        <v>1.025331798464678</v>
       </c>
       <c r="L19">
-        <v>1.032493841821718</v>
+        <v>1.015019113684304</v>
       </c>
       <c r="M19">
-        <v>1.038899862324042</v>
+        <v>1.009294784710735</v>
       </c>
       <c r="N19">
-        <v>1.01452247948846</v>
+        <v>1.010162435399782</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.025087713310385</v>
+        <v>0.9901117779467815</v>
       </c>
       <c r="D20">
-        <v>1.030298683823174</v>
+        <v>1.010685347230913</v>
       </c>
       <c r="E20">
-        <v>1.02888789114556</v>
+        <v>0.9999679882831393</v>
       </c>
       <c r="F20">
-        <v>1.035203930384265</v>
+        <v>0.9935908253467227</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035346039120651</v>
+        <v>1.040577575174459</v>
       </c>
       <c r="J20">
-        <v>1.031358205849708</v>
+        <v>1.018029268386353</v>
       </c>
       <c r="K20">
-        <v>1.033692263299756</v>
+        <v>1.024542874318346</v>
       </c>
       <c r="L20">
-        <v>1.032286467061377</v>
+        <v>1.014011400601767</v>
       </c>
       <c r="M20">
-        <v>1.038580254303774</v>
+        <v>1.007747316403435</v>
       </c>
       <c r="N20">
-        <v>1.01446635143588</v>
+        <v>1.009877115471474</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.024139530438904</v>
+        <v>0.9850786729231875</v>
       </c>
       <c r="D21">
-        <v>1.02959592559036</v>
+        <v>1.00707776555453</v>
       </c>
       <c r="E21">
-        <v>1.028002276431552</v>
+        <v>0.9956107476385001</v>
       </c>
       <c r="F21">
-        <v>1.033953622711205</v>
+        <v>0.9873945992950274</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035078093691781</v>
+        <v>1.038766252673522</v>
       </c>
       <c r="J21">
-        <v>1.030811885261513</v>
+        <v>1.015213772536463</v>
       </c>
       <c r="K21">
-        <v>1.033200061321783</v>
+        <v>1.021926276816867</v>
       </c>
       <c r="L21">
-        <v>1.031612435422601</v>
+        <v>1.010675755636951</v>
       </c>
       <c r="M21">
-        <v>1.037541393324168</v>
+        <v>1.002618785921376</v>
       </c>
       <c r="N21">
-        <v>1.014283721675914</v>
+        <v>1.008931349723414</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.023543834860818</v>
+        <v>0.981842081936163</v>
       </c>
       <c r="D22">
-        <v>1.029154405611196</v>
+        <v>1.004762195926294</v>
       </c>
       <c r="E22">
-        <v>1.027446293697608</v>
+        <v>0.9928158324741987</v>
       </c>
       <c r="F22">
-        <v>1.033168292100123</v>
+        <v>0.9834083505906763</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034908425635538</v>
+        <v>1.037591174841028</v>
       </c>
       <c r="J22">
-        <v>1.03046815967723</v>
+        <v>1.013400462745692</v>
       </c>
       <c r="K22">
-        <v>1.032890176642011</v>
+        <v>1.020239899437687</v>
       </c>
       <c r="L22">
-        <v>1.031188776501673</v>
+        <v>1.008530965318699</v>
       </c>
       <c r="M22">
-        <v>1.036888388173025</v>
+        <v>0.9993158157929461</v>
       </c>
       <c r="N22">
-        <v>1.014168780413467</v>
+        <v>1.008322226042477</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.023859579907832</v>
+        <v>0.9835649089787699</v>
       </c>
       <c r="D23">
-        <v>1.029388431747957</v>
+        <v>1.005994338142273</v>
       </c>
       <c r="E23">
-        <v>1.027740950691372</v>
+        <v>0.9943028769323863</v>
       </c>
       <c r="F23">
-        <v>1.03358453592083</v>
+        <v>0.9855304103880634</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034998483445524</v>
+        <v>1.038217620886644</v>
       </c>
       <c r="J23">
-        <v>1.030650396804585</v>
+        <v>1.014365932622007</v>
       </c>
       <c r="K23">
-        <v>1.033054491651826</v>
+        <v>1.021137891951613</v>
       </c>
       <c r="L23">
-        <v>1.031413353256282</v>
+        <v>1.009672595844654</v>
       </c>
       <c r="M23">
-        <v>1.037234542459233</v>
+        <v>1.001074466406673</v>
       </c>
       <c r="N23">
-        <v>1.014229723702327</v>
+        <v>1.008646544417832</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.025103617508438</v>
+        <v>0.9901949837215579</v>
       </c>
       <c r="D24">
-        <v>1.030310471178739</v>
+        <v>1.010745054006254</v>
       </c>
       <c r="E24">
-        <v>1.028902752694825</v>
+        <v>1.000040134707357</v>
       </c>
       <c r="F24">
-        <v>1.035224905274132</v>
+        <v>0.9936932380836334</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035350510873537</v>
+        <v>1.040607345681243</v>
       </c>
       <c r="J24">
-        <v>1.031367360982324</v>
+        <v>1.018075764924933</v>
       </c>
       <c r="K24">
-        <v>1.033700507978363</v>
+        <v>1.024586065922083</v>
       </c>
       <c r="L24">
-        <v>1.032297769435005</v>
+        <v>1.014066545571918</v>
       </c>
       <c r="M24">
-        <v>1.038597673755203</v>
+        <v>1.007832020202626</v>
       </c>
       <c r="N24">
-        <v>1.01446941127742</v>
+        <v>1.009892733976494</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.02654923595189</v>
+        <v>0.9975955276600702</v>
       </c>
       <c r="D25">
-        <v>1.031381843222511</v>
+        <v>1.016063998838777</v>
       </c>
       <c r="E25">
-        <v>1.030254559132037</v>
+        <v>1.006472212808357</v>
       </c>
       <c r="F25">
-        <v>1.037131875979425</v>
+        <v>1.002800466689779</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035753773709582</v>
+        <v>1.043230433101593</v>
       </c>
       <c r="J25">
-        <v>1.032198315618573</v>
+        <v>1.022204083734596</v>
       </c>
       <c r="K25">
-        <v>1.034448322561398</v>
+        <v>1.028417956937904</v>
       </c>
       <c r="L25">
-        <v>1.033324618755594</v>
+        <v>1.018970880036162</v>
       </c>
       <c r="M25">
-        <v>1.04018022542988</v>
+        <v>1.015355464019596</v>
       </c>
       <c r="N25">
-        <v>1.014747043922057</v>
+        <v>1.011279364719274</v>
       </c>
     </row>
   </sheetData>
